--- a/tables/input/trial1_kotik.xlsx
+++ b/tables/input/trial1_kotik.xlsx
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="5">
-        <v>247</v>
+        <v>686</v>
       </c>
       <c r="Q2" s="5">
         <v>50</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="5">
-        <v>247</v>
+        <v>686</v>
       </c>
       <c r="Q3" s="5">
         <v>50</v>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="5">
-        <v>436</v>
+        <v>1164</v>
       </c>
       <c r="Q4" s="5">
         <v>50</v>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="5">
-        <v>436</v>
+        <v>1164</v>
       </c>
       <c r="Q5" s="5">
         <v>50</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="5">
-        <v>990</v>
+        <v>1962</v>
       </c>
       <c r="Q6" s="5">
         <v>50</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="5">
-        <v>990</v>
+        <v>1962</v>
       </c>
       <c r="Q7" s="5">
         <v>50</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="5">
-        <v>980</v>
+        <v>1724</v>
       </c>
       <c r="Q8" s="5">
         <v>50</v>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="5">
-        <v>980</v>
+        <v>1724</v>
       </c>
       <c r="Q9" s="5">
         <v>50</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="5">
-        <v>1170</v>
+        <v>960</v>
       </c>
       <c r="Q10" s="5">
         <v>50</v>
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="5">
-        <v>1170</v>
+        <v>960</v>
       </c>
       <c r="Q11" s="5">
         <v>50</v>

--- a/tables/input/trial1_kotik.xlsx
+++ b/tables/input/trial1_kotik.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DDD\NUS_modules_from PC_ not on drive\5112\KOTIK\strut pack\civilR\tables\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="Kotik strut input" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Strut name</t>
   </si>
@@ -32,17 +39,6 @@
     <t xml:space="preserve"> Lcrz(m)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> θ (Deg)</t>
-    </r>
-  </si>
-  <si>
     <t>Lch (mm)</t>
   </si>
   <si>
@@ -67,9 +63,6 @@
     <t>LL(kN/m)</t>
   </si>
   <si>
-    <t xml:space="preserve"> AF (kN/m) </t>
-  </si>
-  <si>
     <t>IL (kN/m)</t>
   </si>
   <si>
@@ -85,64 +78,77 @@
     <t xml:space="preserve"> k_T</t>
   </si>
   <si>
-    <t>A-L1-S1</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
     <t>UB</t>
   </si>
   <si>
-    <t>A-L1-S2</t>
-  </si>
-  <si>
-    <t>A-L2-S1</t>
-  </si>
-  <si>
-    <t>A-L2-S2</t>
-  </si>
-  <si>
-    <t>A-L3-S1</t>
-  </si>
-  <si>
-    <t>A-L3-S2</t>
+    <t>L1-S1</t>
+  </si>
+  <si>
+    <t>L1-S2</t>
+  </si>
+  <si>
+    <t>L2-S1</t>
+  </si>
+  <si>
+    <t>L2-S2</t>
+  </si>
+  <si>
+    <t>L3-S1</t>
+  </si>
+  <si>
+    <t>L3-S2</t>
+  </si>
+  <si>
+    <t>L4-S1</t>
+  </si>
+  <si>
+    <t>L4-S2</t>
+  </si>
+  <si>
+    <t>L5-S1</t>
+  </si>
+  <si>
+    <t>L5-S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P (kN/m) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> θ (Deg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -212,55 +218,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -269,24 +327,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -488,7 +607,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -507,7 +626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -537,7 +656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -563,7 +682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -589,7 +708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -667,7 +786,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -693,7 +812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -719,7 +838,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -745,7 +864,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,9 +877,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -777,7 +902,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -796,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,9 +1168,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1059,7 +1190,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1078,7 +1209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +1421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,105 +1460,114 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:IV38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.3516" style="1" customWidth="1"/>
-    <col min="2" max="18" width="8.85156" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6719" style="1" customWidth="1"/>
-    <col min="20" max="21" width="8.85156" style="1" customWidth="1"/>
-    <col min="22" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" style="1" customWidth="1"/>
+    <col min="2" max="18" width="8.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" style="1" customWidth="1"/>
+    <col min="20" max="256" width="8.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="4">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="4">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="3">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="3">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="3">
+      <c r="P1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="3">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="3">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="3">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="3">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="4">
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5">
         <v>12.5</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D2" s="5">
         <v>6</v>
@@ -1456,46 +1596,46 @@
       <c r="L2" s="5">
         <v>210</v>
       </c>
-      <c r="M2" t="s" s="6">
-        <v>22</v>
+      <c r="M2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="N2" s="5">
         <v>1</v>
       </c>
-      <c r="O2" s="5">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="O2" s="14">
+        <v>1</v>
+      </c>
+      <c r="P2" s="18">
         <v>686</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="15">
         <v>50</v>
       </c>
       <c r="R2" s="5">
         <v>355</v>
       </c>
-      <c r="S2" t="s" s="4">
-        <v>23</v>
+      <c r="S2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="T2" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="U2" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>24</v>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="5">
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D3" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
         <v>9</v>
@@ -1521,43 +1661,43 @@
       <c r="L3" s="5">
         <v>210</v>
       </c>
-      <c r="M3" t="s" s="6">
-        <v>22</v>
+      <c r="M3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="N3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="5">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="O3" s="14">
+        <v>1</v>
+      </c>
+      <c r="P3" s="18">
         <v>686</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="15">
         <v>50</v>
       </c>
       <c r="R3" s="5">
         <v>355</v>
       </c>
-      <c r="S3" t="s" s="4">
-        <v>23</v>
+      <c r="S3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="T3" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="U3" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>25</v>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="5">
         <v>12.5</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D4" s="5">
         <v>6</v>
@@ -1586,46 +1726,46 @@
       <c r="L4" s="5">
         <v>210</v>
       </c>
-      <c r="M4" t="s" s="6">
-        <v>9</v>
+      <c r="M4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="N4" s="5">
         <v>1</v>
       </c>
-      <c r="O4" s="5">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="O4" s="14">
+        <v>1</v>
+      </c>
+      <c r="P4" s="18">
         <v>1164</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="15">
         <v>50</v>
       </c>
       <c r="R4" s="5">
         <v>355</v>
       </c>
-      <c r="S4" t="s" s="4">
-        <v>23</v>
+      <c r="S4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="T4" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="U4" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="4">
-        <v>26</v>
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="5">
         <v>9</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
         <v>9</v>
@@ -1651,43 +1791,43 @@
       <c r="L5" s="5">
         <v>210</v>
       </c>
-      <c r="M5" t="s" s="6">
-        <v>9</v>
+      <c r="M5" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="N5" s="5">
         <v>1</v>
       </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="O5" s="14">
+        <v>1</v>
+      </c>
+      <c r="P5" s="18">
         <v>1164</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="15">
         <v>50</v>
       </c>
       <c r="R5" s="5">
         <v>355</v>
       </c>
-      <c r="S5" t="s" s="4">
-        <v>23</v>
+      <c r="S5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="T5" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="U5" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>27</v>
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="5">
         <v>12.5</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="5">
         <v>6</v>
@@ -1716,46 +1856,46 @@
       <c r="L6" s="5">
         <v>210</v>
       </c>
-      <c r="M6" t="s" s="6">
-        <v>9</v>
+      <c r="M6" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="N6" s="5">
         <v>1</v>
       </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="O6" s="14">
+        <v>1</v>
+      </c>
+      <c r="P6" s="18">
         <v>1962</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="15">
         <v>50</v>
       </c>
       <c r="R6" s="5">
         <v>355</v>
       </c>
-      <c r="S6" t="s" s="4">
-        <v>23</v>
+      <c r="S6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="T6" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="U6" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>28</v>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="5">
         <v>9</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
         <v>9</v>
@@ -1781,43 +1921,43 @@
       <c r="L7" s="5">
         <v>210</v>
       </c>
-      <c r="M7" t="s" s="6">
-        <v>9</v>
+      <c r="M7" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="N7" s="5">
         <v>1</v>
       </c>
-      <c r="O7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="O7" s="14">
+        <v>1</v>
+      </c>
+      <c r="P7" s="18">
         <v>1962</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="15">
         <v>50</v>
       </c>
       <c r="R7" s="5">
         <v>355</v>
       </c>
-      <c r="S7" t="s" s="4">
-        <v>23</v>
+      <c r="S7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="T7" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="U7" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="4">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="5">
         <v>12.5</v>
       </c>
       <c r="C8" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
@@ -1846,46 +1986,46 @@
       <c r="L8" s="5">
         <v>210</v>
       </c>
-      <c r="M8" t="s" s="6">
-        <v>9</v>
+      <c r="M8" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
       </c>
-      <c r="O8" s="5">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
+      <c r="P8" s="18">
         <v>1724</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="15">
         <v>50</v>
       </c>
       <c r="R8" s="5">
         <v>355</v>
       </c>
-      <c r="S8" t="s" s="4">
-        <v>23</v>
+      <c r="S8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="T8" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="U8" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="4">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5">
         <v>9</v>
       </c>
       <c r="C9" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D9" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5">
         <v>9</v>
@@ -1911,43 +2051,43 @@
       <c r="L9" s="5">
         <v>210</v>
       </c>
-      <c r="M9" t="s" s="6">
-        <v>9</v>
+      <c r="M9" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="N9" s="5">
         <v>1</v>
       </c>
-      <c r="O9" s="5">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="O9" s="14">
+        <v>1</v>
+      </c>
+      <c r="P9" s="18">
         <v>1724</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="15">
         <v>50</v>
       </c>
       <c r="R9" s="5">
         <v>355</v>
       </c>
-      <c r="S9" t="s" s="4">
-        <v>23</v>
+      <c r="S9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="T9" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="U9" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>27</v>
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="5">
         <v>12.5</v>
       </c>
       <c r="C10" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D10" s="5">
         <v>6</v>
@@ -1976,46 +2116,46 @@
       <c r="L10" s="5">
         <v>210</v>
       </c>
-      <c r="M10" t="s" s="6">
-        <v>9</v>
+      <c r="M10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="N10" s="5">
         <v>1</v>
       </c>
-      <c r="O10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="O10" s="14">
+        <v>1</v>
+      </c>
+      <c r="P10" s="18">
         <v>960</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="15">
         <v>50</v>
       </c>
       <c r="R10" s="5">
         <v>355</v>
       </c>
-      <c r="S10" t="s" s="4">
-        <v>23</v>
+      <c r="S10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="T10" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="U10" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="4">
-        <v>28</v>
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D11" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5">
         <v>9</v>
@@ -2041,35 +2181,35 @@
       <c r="L11" s="5">
         <v>210</v>
       </c>
-      <c r="M11" t="s" s="6">
-        <v>9</v>
+      <c r="M11" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="N11" s="5">
         <v>1</v>
       </c>
-      <c r="O11" s="5">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="O11" s="14">
+        <v>1</v>
+      </c>
+      <c r="P11" s="18">
         <v>960</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="15">
         <v>50</v>
       </c>
       <c r="R11" s="5">
         <v>355</v>
       </c>
-      <c r="S11" t="s" s="4">
-        <v>23</v>
+      <c r="S11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="T11" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="U11" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2085,14 +2225,14 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="4"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2115,7 +2255,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2138,7 +2278,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2161,7 +2301,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2184,7 +2324,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2207,7 +2347,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2230,7 +2370,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2253,7 +2393,7 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2276,7 +2416,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2299,7 +2439,7 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2322,7 +2462,7 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2345,7 +2485,7 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2368,7 +2508,7 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2391,7 +2531,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2414,7 +2554,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2437,7 +2577,7 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2460,7 +2600,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2483,7 +2623,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2506,7 +2646,7 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2529,7 +2669,7 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2552,7 +2692,7 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2575,7 +2715,7 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2598,7 +2738,7 @@
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2621,7 +2761,7 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2644,7 +2784,7 @@
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2667,7 +2807,7 @@
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2692,98 +2832,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="5" width="8.85156" style="13" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/tables/input/trial1_kotik.xlsx
+++ b/tables/input/trial1_kotik.xlsx
@@ -114,10 +114,10 @@
     <t>L5-S2</t>
   </si>
   <si>
-    <t xml:space="preserve">P (kN/m) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> θ (Deg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ned (kN) </t>
   </si>
 </sst>
 </file>
@@ -165,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -261,27 +261,40 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="8"/>
-      </left>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -289,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -313,12 +326,23 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1482,8 +1506,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IV38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1514,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -1534,22 +1558,22 @@
       <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="18" t="s">
         <v>16</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -1576,7 +1600,7 @@
         <v>12.5</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="G2" s="5">
         <v>90</v>
@@ -1599,22 +1623,22 @@
       <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="14">
         <v>1</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="23">
         <v>1</v>
       </c>
-      <c r="P2" s="18">
-        <v>686</v>
-      </c>
-      <c r="Q2" s="15">
+      <c r="P2" s="24">
+        <v>4122</v>
+      </c>
+      <c r="Q2" s="23">
         <v>50</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="23">
         <v>355</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="5">
@@ -1641,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G3" s="5">
         <v>45</v>
@@ -1664,22 +1688,22 @@
       <c r="M3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="14">
         <v>1</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="23">
         <v>1</v>
       </c>
-      <c r="P3" s="18">
-        <v>686</v>
-      </c>
-      <c r="Q3" s="15">
+      <c r="P3" s="24">
+        <v>4122</v>
+      </c>
+      <c r="Q3" s="23">
         <v>50</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="23">
         <v>355</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="19" t="s">
         <v>20</v>
       </c>
       <c r="T3" s="5">
@@ -1706,7 +1730,7 @@
         <v>12.5</v>
       </c>
       <c r="F4" s="5">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="G4" s="5">
         <v>90</v>
@@ -1729,22 +1753,22 @@
       <c r="M4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="14">
         <v>1</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="23">
         <v>1</v>
       </c>
-      <c r="P4" s="18">
-        <v>1164</v>
-      </c>
-      <c r="Q4" s="15">
+      <c r="P4" s="24">
+        <v>6987</v>
+      </c>
+      <c r="Q4" s="23">
         <v>50</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="23">
         <v>355</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="19" t="s">
         <v>20</v>
       </c>
       <c r="T4" s="5">
@@ -1771,7 +1795,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G5" s="5">
         <v>45</v>
@@ -1794,22 +1818,22 @@
       <c r="M5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="14">
         <v>1</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="23">
         <v>1</v>
       </c>
-      <c r="P5" s="18">
-        <v>1164</v>
-      </c>
-      <c r="Q5" s="15">
+      <c r="P5" s="24">
+        <v>6987</v>
+      </c>
+      <c r="Q5" s="23">
         <v>50</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="23">
         <v>355</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="T5" s="5">
@@ -1836,7 +1860,7 @@
         <v>12.5</v>
       </c>
       <c r="F6" s="5">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="G6" s="5">
         <v>90</v>
@@ -1859,22 +1883,22 @@
       <c r="M6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="14">
         <v>1</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="23">
         <v>1</v>
       </c>
-      <c r="P6" s="18">
-        <v>1962</v>
-      </c>
-      <c r="Q6" s="15">
+      <c r="P6" s="24">
+        <v>11773</v>
+      </c>
+      <c r="Q6" s="23">
         <v>50</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="23">
         <v>355</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="T6" s="5">
@@ -1901,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5">
         <v>45</v>
@@ -1924,22 +1948,22 @@
       <c r="M7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="14">
         <v>1</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="23">
         <v>1</v>
       </c>
-      <c r="P7" s="18">
-        <v>1962</v>
-      </c>
-      <c r="Q7" s="15">
+      <c r="P7" s="24">
+        <v>11773</v>
+      </c>
+      <c r="Q7" s="23">
         <v>50</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="23">
         <v>355</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="T7" s="5">
@@ -1966,7 +1990,7 @@
         <v>12.5</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="G8" s="5">
         <v>90</v>
@@ -1989,22 +2013,22 @@
       <c r="M8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="14">
         <v>1</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="23">
         <v>1</v>
       </c>
-      <c r="P8" s="18">
-        <v>1724</v>
-      </c>
-      <c r="Q8" s="15">
+      <c r="P8" s="24">
+        <v>10347</v>
+      </c>
+      <c r="Q8" s="23">
         <v>50</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="23">
         <v>355</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="T8" s="5">
@@ -2031,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G9" s="5">
         <v>45</v>
@@ -2054,22 +2078,22 @@
       <c r="M9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="14">
         <v>1</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="23">
         <v>1</v>
       </c>
-      <c r="P9" s="18">
-        <v>1724</v>
-      </c>
-      <c r="Q9" s="15">
+      <c r="P9" s="24">
+        <v>10347</v>
+      </c>
+      <c r="Q9" s="23">
         <v>50</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="23">
         <v>355</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="T9" s="5">
@@ -2096,7 +2120,7 @@
         <v>12.5</v>
       </c>
       <c r="F10" s="5">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="G10" s="5">
         <v>90</v>
@@ -2119,22 +2143,22 @@
       <c r="M10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="14">
         <v>1</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="23">
         <v>1</v>
       </c>
-      <c r="P10" s="18">
-        <v>960</v>
-      </c>
-      <c r="Q10" s="15">
+      <c r="P10" s="24">
+        <v>5765</v>
+      </c>
+      <c r="Q10" s="23">
         <v>50</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="23">
         <v>355</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="T10" s="5">
@@ -2161,7 +2185,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G11" s="5">
         <v>45</v>
@@ -2184,22 +2208,22 @@
       <c r="M11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="14">
         <v>1</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="23">
         <v>1</v>
       </c>
-      <c r="P11" s="18">
-        <v>960</v>
-      </c>
-      <c r="Q11" s="15">
+      <c r="P11" s="24">
+        <v>5765</v>
+      </c>
+      <c r="Q11" s="23">
         <v>50</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="23">
         <v>355</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="5">
@@ -2223,12 +2247,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="4"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
@@ -2246,12 +2270,12 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
@@ -2270,10 +2294,10 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>

--- a/tables/input/trial1_kotik.xlsx
+++ b/tables/input/trial1_kotik.xlsx
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -147,6 +147,24 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -302,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -325,10 +343,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,6 +357,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1506,8 +1525,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IV38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:W8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1558,22 +1577,22 @@
       <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -1615,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="5">
-        <v>1140</v>
+        <v>1510</v>
       </c>
       <c r="L2" s="5">
         <v>210</v>
@@ -1623,22 +1642,22 @@
       <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="25">
         <v>1</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="21">
         <v>1</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="26">
         <v>4122</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="21">
         <v>50</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="21">
         <v>355</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="5">
@@ -1653,19 +1672,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5">
         <v>0.8</v>
       </c>
       <c r="D3" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5">
         <v>45</v>
@@ -1680,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="5">
-        <v>1140</v>
+        <v>1510</v>
       </c>
       <c r="L3" s="5">
         <v>210</v>
@@ -1688,22 +1707,22 @@
       <c r="M3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="25">
         <v>1</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="21">
         <v>1</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="26">
         <v>4122</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="21">
         <v>50</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="21">
         <v>355</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="T3" s="5">
@@ -1745,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="5">
-        <v>1140</v>
+        <v>1510</v>
       </c>
       <c r="L4" s="5">
         <v>210</v>
@@ -1753,22 +1772,22 @@
       <c r="M4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="25">
         <v>1</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="21">
         <v>1</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="22">
         <v>6987</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="21">
         <v>50</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="21">
         <v>355</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="17" t="s">
         <v>20</v>
       </c>
       <c r="T4" s="5">
@@ -1783,19 +1802,19 @@
         <v>24</v>
       </c>
       <c r="B5" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5">
         <v>0.8</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5">
         <v>45</v>
@@ -1810,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="5">
-        <v>1140</v>
+        <v>1510</v>
       </c>
       <c r="L5" s="5">
         <v>210</v>
@@ -1818,22 +1837,22 @@
       <c r="M5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="25">
         <v>1</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="21">
         <v>1</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="22">
         <v>6987</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="21">
         <v>50</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="21">
         <v>355</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="T5" s="5">
@@ -1875,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="5">
-        <v>1140</v>
+        <v>1510</v>
       </c>
       <c r="L6" s="5">
         <v>210</v>
@@ -1883,22 +1902,22 @@
       <c r="M6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="25">
         <v>1</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="21">
         <v>1</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="22">
         <v>11773</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="21">
         <v>50</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="21">
         <v>355</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="17" t="s">
         <v>20</v>
       </c>
       <c r="T6" s="5">
@@ -1913,19 +1932,19 @@
         <v>26</v>
       </c>
       <c r="B7" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <v>0.8</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="5">
         <v>45</v>
@@ -1940,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="5">
-        <v>1140</v>
+        <v>1510</v>
       </c>
       <c r="L7" s="5">
         <v>210</v>
@@ -1948,22 +1967,22 @@
       <c r="M7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="25">
         <v>1</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="21">
         <v>1</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="22">
         <v>11773</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="21">
         <v>50</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="21">
         <v>355</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="17" t="s">
         <v>20</v>
       </c>
       <c r="T7" s="5">
@@ -2005,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="5">
-        <v>1140</v>
+        <v>1510</v>
       </c>
       <c r="L8" s="5">
         <v>210</v>
@@ -2013,22 +2032,22 @@
       <c r="M8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="25">
         <v>1</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="21">
         <v>1</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="22">
         <v>10347</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="21">
         <v>50</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="21">
         <v>355</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="T8" s="5">
@@ -2043,19 +2062,19 @@
         <v>28</v>
       </c>
       <c r="B9" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5">
         <v>0.8</v>
       </c>
       <c r="D9" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="5">
         <v>45</v>
@@ -2070,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="5">
-        <v>1140</v>
+        <v>1510</v>
       </c>
       <c r="L9" s="5">
         <v>210</v>
@@ -2078,22 +2097,22 @@
       <c r="M9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="25">
         <v>1</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="21">
         <v>1</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="22">
         <v>10347</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="21">
         <v>50</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="21">
         <v>355</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="T9" s="5">
@@ -2135,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="5">
-        <v>1140</v>
+        <v>1510</v>
       </c>
       <c r="L10" s="5">
         <v>210</v>
@@ -2143,22 +2162,22 @@
       <c r="M10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="25">
         <v>1</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="21">
         <v>1</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="22">
         <v>5765</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="21">
         <v>50</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="21">
         <v>355</v>
       </c>
-      <c r="S10" s="19" t="s">
+      <c r="S10" s="17" t="s">
         <v>20</v>
       </c>
       <c r="T10" s="5">
@@ -2173,19 +2192,19 @@
         <v>30</v>
       </c>
       <c r="B11" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
         <v>0.8</v>
       </c>
       <c r="D11" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="5">
         <v>45</v>
@@ -2200,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="5">
-        <v>1140</v>
+        <v>1510</v>
       </c>
       <c r="L11" s="5">
         <v>210</v>
@@ -2208,22 +2227,22 @@
       <c r="M11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="25">
         <v>1</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="21">
         <v>1</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="22">
         <v>5765</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="21">
         <v>50</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="21">
         <v>355</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="5">
@@ -2247,12 +2266,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="19"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
@@ -2270,12 +2289,12 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="20"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="18"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
@@ -2294,10 +2313,10 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>

--- a/tables/input/trial1_kotik.xlsx
+++ b/tables/input/trial1_kotik.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DDD\NUS_modules_from PC_ not on drive\5112\KOTIK\strut pack\civilR\tables\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DDD\NUS_modules_from PC_ not on drive\5112\KOTIK\strut pack\civilR 2\civilR\tables\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Strut name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>LL(kN/m)</t>
   </si>
   <si>
-    <t>IL (kN/m)</t>
-  </si>
-  <si>
     <t>steel_grade S</t>
   </si>
   <si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ned (kN) </t>
+  </si>
+  <si>
+    <t>AL (kN/m)</t>
+  </si>
+  <si>
+    <t>ml(kg/m)</t>
   </si>
 </sst>
 </file>
@@ -151,20 +154,20 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -320,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -343,8 +346,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -357,11 +358,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,21 +1528,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV38"/>
+  <dimension ref="A1:IW38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.36328125" style="1" customWidth="1"/>
-    <col min="2" max="18" width="8.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6328125" style="1" customWidth="1"/>
-    <col min="20" max="256" width="8.81640625" style="1" customWidth="1"/>
+    <col min="2" max="13" width="8.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" style="28" customWidth="1"/>
+    <col min="15" max="19" width="8.81640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6328125" style="1" customWidth="1"/>
+    <col min="21" max="257" width="8.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -1577,34 +1584,37 @@
       <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="S1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="T1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="U1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>12.5</v>
@@ -1640,36 +1650,39 @@
         <v>210</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="24">
+        <v>1</v>
+      </c>
+      <c r="O2" s="19">
+        <v>1</v>
+      </c>
+      <c r="P2" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>4122</v>
+      </c>
+      <c r="R2" s="19">
+        <v>50</v>
+      </c>
+      <c r="S2" s="19">
+        <v>355</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="25">
-        <v>1</v>
-      </c>
-      <c r="O2" s="21">
-        <v>1</v>
-      </c>
-      <c r="P2" s="26">
-        <v>4122</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>50</v>
-      </c>
-      <c r="R2" s="21">
-        <v>355</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="5">
+      <c r="U2" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="U2" s="5">
+      <c r="V2" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5">
         <v>7</v>
@@ -1705,36 +1718,39 @@
         <v>210</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="24">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>4122</v>
+      </c>
+      <c r="R3" s="19">
+        <v>50</v>
+      </c>
+      <c r="S3" s="19">
+        <v>355</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="25">
-        <v>1</v>
-      </c>
-      <c r="O3" s="21">
-        <v>1</v>
-      </c>
-      <c r="P3" s="26">
-        <v>4122</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>50</v>
-      </c>
-      <c r="R3" s="21">
-        <v>355</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="5">
+      <c r="U3" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="U3" s="5">
+      <c r="V3" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5">
         <v>12.5</v>
@@ -1772,34 +1788,37 @@
       <c r="M4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="24">
         <v>1</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="19">
         <v>1</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q4" s="20">
         <v>6987</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="R4" s="19">
         <v>50</v>
       </c>
-      <c r="R4" s="21">
+      <c r="S4" s="19">
         <v>355</v>
       </c>
-      <c r="S4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="5">
+      <c r="T4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5">
         <v>7</v>
@@ -1837,34 +1856,37 @@
       <c r="M5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="24">
         <v>1</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="19">
         <v>1</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q5" s="20">
         <v>6987</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="R5" s="19">
         <v>50</v>
       </c>
-      <c r="R5" s="21">
+      <c r="S5" s="19">
         <v>355</v>
       </c>
-      <c r="S5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="5">
+      <c r="T5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5">
         <v>12.5</v>
@@ -1894,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="5">
-        <v>1510</v>
+        <v>2270</v>
       </c>
       <c r="L6" s="5">
         <v>210</v>
@@ -1902,34 +1924,37 @@
       <c r="M6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="24">
         <v>1</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="19">
         <v>1</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="Q6" s="20">
         <v>11773</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="R6" s="19">
         <v>50</v>
       </c>
-      <c r="R6" s="21">
+      <c r="S6" s="19">
         <v>355</v>
       </c>
-      <c r="S6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="5">
+      <c r="T6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5">
         <v>7</v>
@@ -1959,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="5">
-        <v>1510</v>
+        <v>2270</v>
       </c>
       <c r="L7" s="5">
         <v>210</v>
@@ -1967,34 +1992,37 @@
       <c r="M7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="24">
         <v>1</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="19">
         <v>1</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="Q7" s="20">
         <v>11773</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="R7" s="19">
         <v>50</v>
       </c>
-      <c r="R7" s="21">
+      <c r="S7" s="19">
         <v>355</v>
       </c>
-      <c r="S7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T7" s="5">
+      <c r="T7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5">
         <v>12.5</v>
@@ -2024,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="5">
-        <v>1510</v>
+        <v>2270</v>
       </c>
       <c r="L8" s="5">
         <v>210</v>
@@ -2032,34 +2060,37 @@
       <c r="M8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="24">
         <v>1</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="19">
         <v>1</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="Q8" s="20">
         <v>10347</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="R8" s="19">
         <v>50</v>
       </c>
-      <c r="R8" s="21">
+      <c r="S8" s="19">
         <v>355</v>
       </c>
-      <c r="S8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="5">
+      <c r="T8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="U8" s="5">
+      <c r="V8" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
@@ -2089,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="5">
-        <v>1510</v>
+        <v>2270</v>
       </c>
       <c r="L9" s="5">
         <v>210</v>
@@ -2097,34 +2128,37 @@
       <c r="M9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="24">
         <v>1</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="19">
         <v>1</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="Q9" s="20">
         <v>10347</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="R9" s="19">
         <v>50</v>
       </c>
-      <c r="R9" s="21">
+      <c r="S9" s="19">
         <v>355</v>
       </c>
-      <c r="S9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T9" s="5">
+      <c r="T9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5">
         <v>12.5</v>
@@ -2154,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="5">
-        <v>1510</v>
+        <v>2270</v>
       </c>
       <c r="L10" s="5">
         <v>210</v>
@@ -2162,34 +2196,37 @@
       <c r="M10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="24">
         <v>1</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="19">
         <v>1</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="Q10" s="20">
         <v>5765</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="R10" s="19">
         <v>50</v>
       </c>
-      <c r="R10" s="21">
+      <c r="S10" s="19">
         <v>355</v>
       </c>
-      <c r="S10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="5">
+      <c r="T10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5">
         <v>7</v>
@@ -2219,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="5">
-        <v>1510</v>
+        <v>2270</v>
       </c>
       <c r="L11" s="5">
         <v>210</v>
@@ -2227,32 +2264,35 @@
       <c r="M11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="24">
         <v>1</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="19">
         <v>1</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="Q11" s="20">
         <v>5765</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="R11" s="19">
         <v>50</v>
       </c>
-      <c r="R11" s="21">
+      <c r="S11" s="19">
         <v>355</v>
       </c>
-      <c r="S11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" s="5">
+      <c r="T11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="5">
         <v>1.2E-5</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2266,16 +2306,17 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="7"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="15"/>
       <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2289,16 +2330,17 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="8"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="16"/>
       <c r="U13" s="8"/>
-    </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2312,16 +2354,17 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="9"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2335,7 +2378,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -2343,8 +2386,9 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2358,7 +2402,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -2366,8 +2410,9 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-    </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2381,7 +2426,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -2389,8 +2434,9 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2404,7 +2450,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -2412,8 +2458,9 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2427,7 +2474,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="N19" s="27"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -2435,8 +2482,9 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-    </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2450,7 +2498,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -2458,8 +2506,9 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
-    </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V20" s="9"/>
+    </row>
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2473,7 +2522,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="N21" s="27"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -2481,8 +2530,9 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
-    </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2496,7 +2546,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -2504,8 +2554,9 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2519,7 +2570,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -2527,8 +2578,9 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V23" s="9"/>
+    </row>
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2542,7 +2594,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="N24" s="27"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -2550,8 +2602,9 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2565,7 +2618,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="11"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -2573,8 +2626,9 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
-    </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2588,7 +2642,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -2596,8 +2650,9 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2611,7 +2666,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="N27" s="27"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -2619,8 +2674,9 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V27" s="9"/>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2634,7 +2690,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="N28" s="27"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -2642,8 +2698,9 @@
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
-    </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V28" s="9"/>
+    </row>
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2657,7 +2714,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="N29" s="27"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -2665,8 +2722,9 @@
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
-    </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V29" s="9"/>
+    </row>
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2680,7 +2738,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
@@ -2688,8 +2746,9 @@
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V30" s="9"/>
+    </row>
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2703,7 +2762,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -2711,8 +2770,9 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
-    </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V31" s="9"/>
+    </row>
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2726,7 +2786,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="N32" s="27"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -2734,8 +2794,9 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
-    </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2749,7 +2810,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
@@ -2757,8 +2818,9 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
-    </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V33" s="9"/>
+    </row>
+    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2772,7 +2834,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -2780,8 +2842,9 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
-    </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V34" s="9"/>
+    </row>
+    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2795,7 +2858,7 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="N35" s="27"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -2803,8 +2866,9 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
-    </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V35" s="9"/>
+    </row>
+    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2818,7 +2882,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="N36" s="27"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
@@ -2826,8 +2890,9 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
-    </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V36" s="9"/>
+    </row>
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2841,7 +2906,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
@@ -2849,8 +2914,9 @@
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
-    </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V37" s="9"/>
+    </row>
+    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2864,7 +2930,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="N38" s="27"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
@@ -2872,6 +2938,7 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/input/trial1_kotik.xlsx
+++ b/tables/input/trial1_kotik.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DDD\NUS_modules_from PC_ not on drive\5112\KOTIK\strut pack\civilR 2\civilR\tables\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Strut name</t>
   </si>
@@ -39,6 +31,9 @@
     <t xml:space="preserve"> Lcrz(m)</t>
   </si>
   <si>
+    <t xml:space="preserve"> θ (Deg)</t>
+  </si>
+  <si>
     <t>Lch (mm)</t>
   </si>
   <si>
@@ -63,6 +58,15 @@
     <t>LL(kN/m)</t>
   </si>
   <si>
+    <t>ml(kg/m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ned (kN) </t>
+  </si>
+  <si>
+    <t>AL (kN/m)</t>
+  </si>
+  <si>
     <t>steel_grade S</t>
   </si>
   <si>
@@ -75,15 +79,15 @@
     <t xml:space="preserve"> k_T</t>
   </si>
   <si>
+    <t>L1-S1</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
     <t>UB</t>
   </si>
   <si>
-    <t>L1-S1</t>
-  </si>
-  <si>
     <t>L1-S2</t>
   </si>
   <si>
@@ -109,67 +113,42 @@
   </si>
   <si>
     <t>L5-S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> θ (Deg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ned (kN) </t>
-  </si>
-  <si>
-    <t>AL (kN/m)</t>
-  </si>
-  <si>
-    <t>ml(kg/m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -186,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -229,62 +208,8 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -294,7 +219,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -313,7 +240,9 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -321,52 +250,56 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,85 +308,24 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -655,7 +527,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -674,7 +546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -925,15 +797,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -950,7 +816,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -969,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,15 +1082,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1238,7 +1098,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1257,7 +1117,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1199,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1277,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1303,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1329,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,7 +1355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1508,116 +1368,105 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IW38"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" style="1" customWidth="1"/>
-    <col min="2" max="13" width="8.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" style="28" customWidth="1"/>
-    <col min="15" max="19" width="8.81640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6328125" style="1" customWidth="1"/>
-    <col min="21" max="257" width="8.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3516" style="1" customWidth="1"/>
+    <col min="2" max="19" width="8.85156" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6719" style="1" customWidth="1"/>
+    <col min="21" max="22" width="8.85156" style="1" customWidth="1"/>
+    <col min="23" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="22" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="M1" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="N1" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="P1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="18" t="s">
+      <c r="O1" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="P1" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Q1" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="R1" t="s" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="S1" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="4">
         <v>20</v>
       </c>
+      <c r="V1" t="s" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>22</v>
+      </c>
       <c r="B2" s="5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5">
         <v>0.8</v>
@@ -1626,10 +1475,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5">
         <v>90</v>
@@ -1649,40 +1498,40 @@
       <c r="L2" s="5">
         <v>210</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="24">
+      <c r="M2" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5">
         <v>1</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="5">
         <v>1</v>
       </c>
-      <c r="P2" s="19">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="Q2" s="22">
+      <c r="P2" s="5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q2" s="5">
         <v>4122</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="5">
         <v>50</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="5">
         <v>355</v>
       </c>
-      <c r="T2" s="15" t="s">
-        <v>19</v>
+      <c r="T2" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="U2" s="5">
-        <v>1.2E-5</v>
+        <v>1.2e-05</v>
       </c>
       <c r="V2" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>21</v>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>25</v>
       </c>
       <c r="B3" s="5">
         <v>7</v>
@@ -1717,43 +1566,43 @@
       <c r="L3" s="5">
         <v>210</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="24">
+      <c r="M3" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="N3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="5">
         <v>1</v>
       </c>
-      <c r="P3" s="19">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="Q3" s="22">
+      <c r="P3" s="5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q3" s="5">
         <v>4122</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="5">
         <v>50</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="5">
         <v>355</v>
       </c>
-      <c r="T3" s="15" t="s">
-        <v>19</v>
+      <c r="T3" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="U3" s="5">
-        <v>1.2E-5</v>
+        <v>1.2e-05</v>
       </c>
       <c r="V3" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>22</v>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>26</v>
       </c>
       <c r="B4" s="5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>0.8</v>
@@ -1762,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5">
         <v>90</v>
@@ -1785,40 +1634,40 @@
       <c r="L4" s="5">
         <v>210</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="24">
+      <c r="M4" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5">
         <v>1</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="19">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="Q4" s="20">
+      <c r="P4" s="5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q4" s="5">
         <v>6987</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="5">
         <v>50</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="5">
         <v>355</v>
       </c>
-      <c r="T4" s="15" t="s">
-        <v>19</v>
+      <c r="T4" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="U4" s="5">
-        <v>1.2E-5</v>
+        <v>1.2e-05</v>
       </c>
       <c r="V4" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>23</v>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="4">
+        <v>27</v>
       </c>
       <c r="B5" s="5">
         <v>7</v>
@@ -1853,43 +1702,43 @@
       <c r="L5" s="5">
         <v>210</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="24">
+      <c r="M5" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="N5" s="5">
         <v>1</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="P5" s="19">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="Q5" s="20">
+      <c r="P5" s="5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q5" s="5">
         <v>6987</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="5">
         <v>50</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="5">
         <v>355</v>
       </c>
-      <c r="T5" s="15" t="s">
-        <v>19</v>
+      <c r="T5" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="U5" s="5">
-        <v>1.2E-5</v>
+        <v>1.2e-05</v>
       </c>
       <c r="V5" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>24</v>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="4">
+        <v>28</v>
       </c>
       <c r="B6" s="5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>0.8</v>
@@ -1898,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5">
         <v>90</v>
@@ -1916,45 +1765,45 @@
         <v>2</v>
       </c>
       <c r="K6" s="5">
-        <v>2270</v>
+        <v>1510</v>
       </c>
       <c r="L6" s="5">
         <v>210</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="24">
+      <c r="M6" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="N6" s="5">
         <v>1</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="5">
         <v>1</v>
       </c>
-      <c r="P6" s="19">
-        <v>17.8</v>
-      </c>
-      <c r="Q6" s="20">
+      <c r="P6" s="5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q6" s="5">
         <v>11773</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="5">
         <v>50</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="5">
         <v>355</v>
       </c>
-      <c r="T6" s="15" t="s">
-        <v>19</v>
+      <c r="T6" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="U6" s="5">
-        <v>1.2E-5</v>
+        <v>1.2e-05</v>
       </c>
       <c r="V6" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>25</v>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="4">
+        <v>29</v>
       </c>
       <c r="B7" s="5">
         <v>7</v>
@@ -1984,48 +1833,48 @@
         <v>2</v>
       </c>
       <c r="K7" s="5">
-        <v>2270</v>
+        <v>1510</v>
       </c>
       <c r="L7" s="5">
         <v>210</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="24">
+      <c r="M7" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="N7" s="5">
         <v>1</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="5">
         <v>1</v>
       </c>
-      <c r="P7" s="19">
-        <v>17.8</v>
-      </c>
-      <c r="Q7" s="20">
+      <c r="P7" s="5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q7" s="5">
         <v>11773</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="5">
         <v>50</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="5">
         <v>355</v>
       </c>
-      <c r="T7" s="15" t="s">
-        <v>19</v>
+      <c r="T7" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="U7" s="5">
-        <v>1.2E-5</v>
+        <v>1.2e-05</v>
       </c>
       <c r="V7" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>26</v>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="4">
+        <v>30</v>
       </c>
       <c r="B8" s="5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>0.8</v>
@@ -2034,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5">
         <v>90</v>
@@ -2052,45 +1901,45 @@
         <v>2</v>
       </c>
       <c r="K8" s="5">
-        <v>2270</v>
+        <v>1510</v>
       </c>
       <c r="L8" s="5">
         <v>210</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="24">
+      <c r="M8" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="N8" s="5">
         <v>1</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="5">
         <v>1</v>
       </c>
-      <c r="P8" s="19">
-        <v>17.8</v>
-      </c>
-      <c r="Q8" s="20">
+      <c r="P8" s="5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q8" s="5">
         <v>10347</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="5">
         <v>50</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="5">
         <v>355</v>
       </c>
-      <c r="T8" s="15" t="s">
-        <v>19</v>
+      <c r="T8" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="U8" s="5">
-        <v>1.2E-5</v>
+        <v>1.2e-05</v>
       </c>
       <c r="V8" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>27</v>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="4">
+        <v>31</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
@@ -2120,48 +1969,48 @@
         <v>2</v>
       </c>
       <c r="K9" s="5">
-        <v>2270</v>
+        <v>1510</v>
       </c>
       <c r="L9" s="5">
         <v>210</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="24">
+      <c r="M9" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="N9" s="5">
         <v>1</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="5">
         <v>1</v>
       </c>
-      <c r="P9" s="19">
-        <v>17.8</v>
-      </c>
-      <c r="Q9" s="20">
+      <c r="P9" s="5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q9" s="5">
         <v>10347</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="5">
         <v>50</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="5">
         <v>355</v>
       </c>
-      <c r="T9" s="15" t="s">
-        <v>19</v>
+      <c r="T9" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="U9" s="5">
-        <v>1.2E-5</v>
+        <v>1.2e-05</v>
       </c>
       <c r="V9" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>28</v>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="4">
+        <v>32</v>
       </c>
       <c r="B10" s="5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>0.8</v>
@@ -2170,10 +2019,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="G10" s="5">
         <v>90</v>
@@ -2188,45 +2037,45 @@
         <v>2</v>
       </c>
       <c r="K10" s="5">
-        <v>2270</v>
+        <v>1510</v>
       </c>
       <c r="L10" s="5">
         <v>210</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="24">
+      <c r="M10" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="N10" s="5">
         <v>1</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="5">
         <v>1</v>
       </c>
-      <c r="P10" s="19">
-        <v>17.8</v>
-      </c>
-      <c r="Q10" s="20">
+      <c r="P10" s="5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q10" s="5">
         <v>5765</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="5">
         <v>50</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="5">
         <v>355</v>
       </c>
-      <c r="T10" s="15" t="s">
-        <v>19</v>
+      <c r="T10" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="U10" s="5">
-        <v>1.2E-5</v>
+        <v>1.2e-05</v>
       </c>
       <c r="V10" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>29</v>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="4">
+        <v>33</v>
       </c>
       <c r="B11" s="5">
         <v>7</v>
@@ -2256,43 +2105,43 @@
         <v>2</v>
       </c>
       <c r="K11" s="5">
-        <v>2270</v>
+        <v>1510</v>
       </c>
       <c r="L11" s="5">
         <v>210</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="24">
+      <c r="M11" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="N11" s="5">
         <v>1</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="5">
         <v>1</v>
       </c>
-      <c r="P11" s="19">
-        <v>17.8</v>
-      </c>
-      <c r="Q11" s="20">
+      <c r="P11" s="5">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="Q11" s="5">
         <v>5765</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="5">
         <v>50</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="5">
         <v>355</v>
       </c>
-      <c r="T11" s="15" t="s">
-        <v>19</v>
+      <c r="T11" t="s" s="4">
+        <v>24</v>
       </c>
       <c r="U11" s="5">
-        <v>1.2E-5</v>
+        <v>1.2e-05</v>
       </c>
       <c r="V11" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2306,17 +2155,17 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="15"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2330,619 +2179,619 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="16"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="10"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-    </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-    </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-    </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-    </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-    </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-    </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-    </row>
-    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-    </row>
-    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-    </row>
-    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-    </row>
-    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-    </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-    </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-    </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-    </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-    </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-    </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-    </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-    </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-    </row>
-    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-    </row>
-    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-    </row>
-    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-    </row>
-    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-    </row>
-    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/tables/input/trial1_kotik.xlsx
+++ b/tables/input/trial1_kotik.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DDD\NUS_modules_from PC_ not on drive\5112\KOTIK\strut pack\civilR 2\civilR\tables\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Strut name</t>
   </si>
@@ -31,124 +39,137 @@
     <t xml:space="preserve"> Lcrz(m)</t>
   </si>
   <si>
+    <t>Lch (mm)</t>
+  </si>
+  <si>
+    <t>ho (mm)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Ad(mm2)</t>
+  </si>
+  <si>
+    <t>E(GPa)</t>
+  </si>
+  <si>
+    <t>1st level (y/n)</t>
+  </si>
+  <si>
+    <t>DL, (kN/m)</t>
+  </si>
+  <si>
+    <t>LL(kN/m)</t>
+  </si>
+  <si>
+    <t>steel_grade S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_type </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alpha_T </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k_T</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>L1-S1</t>
+  </si>
+  <si>
+    <t>L1-S2</t>
+  </si>
+  <si>
+    <t>L2-S1</t>
+  </si>
+  <si>
+    <t>L2-S2</t>
+  </si>
+  <si>
+    <t>L3-S1</t>
+  </si>
+  <si>
+    <t>L3-S2</t>
+  </si>
+  <si>
+    <t>L4-S1</t>
+  </si>
+  <si>
+    <t>L4-S2</t>
+  </si>
+  <si>
+    <t>L5-S1</t>
+  </si>
+  <si>
+    <t>L5-S2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> θ (Deg)</t>
   </si>
   <si>
-    <t>Lch (mm)</t>
-  </si>
-  <si>
-    <t>ho (mm)</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Ad(mm2)</t>
-  </si>
-  <si>
-    <t>E(GPa)</t>
-  </si>
-  <si>
-    <t>1st level (y/n)</t>
-  </si>
-  <si>
-    <t>DL, (kN/m)</t>
-  </si>
-  <si>
-    <t>LL(kN/m)</t>
+    <t xml:space="preserve">Ned (kN) </t>
+  </si>
+  <si>
+    <t>AL (kN/m)</t>
   </si>
   <si>
     <t>ml(kg/m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ned (kN) </t>
-  </si>
-  <si>
-    <t>AL (kN/m)</t>
-  </si>
-  <si>
-    <t>steel_grade S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_type </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> alpha_T </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> k_T</t>
-  </si>
-  <si>
-    <t>L1-S1</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>UB</t>
-  </si>
-  <si>
-    <t>L1-S2</t>
-  </si>
-  <si>
-    <t>L2-S1</t>
-  </si>
-  <si>
-    <t>L2-S2</t>
-  </si>
-  <si>
-    <t>L3-S1</t>
-  </si>
-  <si>
-    <t>L3-S2</t>
-  </si>
-  <si>
-    <t>L4-S1</t>
-  </si>
-  <si>
-    <t>L4-S2</t>
-  </si>
-  <si>
-    <t>L5-S1</t>
-  </si>
-  <si>
-    <t>L5-S2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -208,8 +229,62 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="8"/>
       </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -219,9 +294,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -240,9 +313,7 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -250,56 +321,53 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,24 +376,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -527,7 +656,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -546,7 +675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -576,7 +705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -602,7 +731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -628,7 +757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -654,7 +783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -680,7 +809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -706,7 +835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,9 +926,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -816,7 +951,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -835,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,7 +1100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,9 +1217,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1098,7 +1239,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1117,7 +1258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,7 +1392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +1418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1368,102 +1509,113 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:IW38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.3516" style="1" customWidth="1"/>
-    <col min="2" max="19" width="8.85156" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6719" style="1" customWidth="1"/>
-    <col min="21" max="22" width="8.85156" style="1" customWidth="1"/>
-    <col min="23" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" style="1" customWidth="1"/>
+    <col min="2" max="13" width="8.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" style="28" customWidth="1"/>
+    <col min="15" max="19" width="8.81640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6328125" style="1" customWidth="1"/>
+    <col min="21" max="257" width="8.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="4">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="3">
+      <c r="N1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="3">
+      <c r="O1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="3">
+      <c r="P1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="3">
+      <c r="T1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="3">
+      <c r="U1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="3">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s" s="4">
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" t="s" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>22</v>
       </c>
       <c r="B2" s="5">
         <v>14</v>
@@ -1498,40 +1650,40 @@
       <c r="L2" s="5">
         <v>210</v>
       </c>
-      <c r="M2" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="24">
         <v>1</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="19">
         <v>1</v>
       </c>
-      <c r="P2" s="5">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>4122</v>
-      </c>
-      <c r="R2" s="5">
+      <c r="P2" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>4373</v>
+      </c>
+      <c r="R2" s="19">
         <v>50</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="19">
         <v>355</v>
       </c>
-      <c r="T2" t="s" s="4">
-        <v>24</v>
+      <c r="T2" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="U2" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="V2" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>25</v>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="5">
         <v>7</v>
@@ -1566,40 +1718,40 @@
       <c r="L3" s="5">
         <v>210</v>
       </c>
-      <c r="M3" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="M3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="24">
         <v>1</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="19">
         <v>1</v>
       </c>
-      <c r="P3" s="5">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>4122</v>
-      </c>
-      <c r="R3" s="5">
+      <c r="P3" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>4373</v>
+      </c>
+      <c r="R3" s="19">
         <v>50</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="19">
         <v>355</v>
       </c>
-      <c r="T3" t="s" s="4">
-        <v>24</v>
+      <c r="T3" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="U3" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="V3" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>26</v>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="5">
         <v>14</v>
@@ -1634,40 +1786,40 @@
       <c r="L4" s="5">
         <v>210</v>
       </c>
-      <c r="M4" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="M4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="24">
         <v>1</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="19">
         <v>1</v>
       </c>
-      <c r="P4" s="5">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>6987</v>
-      </c>
-      <c r="R4" s="5">
+      <c r="P4" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>7215</v>
+      </c>
+      <c r="R4" s="19">
         <v>50</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="19">
         <v>355</v>
       </c>
-      <c r="T4" t="s" s="4">
-        <v>24</v>
+      <c r="T4" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="U4" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="V4" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="4">
-        <v>27</v>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="5">
         <v>7</v>
@@ -1702,40 +1854,40 @@
       <c r="L5" s="5">
         <v>210</v>
       </c>
-      <c r="M5" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="M5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="24">
         <v>1</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="19">
         <v>1</v>
       </c>
-      <c r="P5" s="5">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>6987</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="P5" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>7215</v>
+      </c>
+      <c r="R5" s="19">
         <v>50</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="19">
         <v>355</v>
       </c>
-      <c r="T5" t="s" s="4">
-        <v>24</v>
+      <c r="T5" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="U5" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="V5" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>28</v>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="5">
         <v>14</v>
@@ -1770,40 +1922,40 @@
       <c r="L6" s="5">
         <v>210</v>
       </c>
-      <c r="M6" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="M6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="24">
         <v>1</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="19">
         <v>1</v>
       </c>
-      <c r="P6" s="5">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>11773</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="P6" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>10327</v>
+      </c>
+      <c r="R6" s="19">
         <v>50</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="19">
         <v>355</v>
       </c>
-      <c r="T6" t="s" s="4">
-        <v>24</v>
+      <c r="T6" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="U6" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="V6" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>29</v>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="5">
         <v>7</v>
@@ -1838,40 +1990,40 @@
       <c r="L7" s="5">
         <v>210</v>
       </c>
-      <c r="M7" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="M7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="24">
         <v>1</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="19">
         <v>1</v>
       </c>
-      <c r="P7" s="5">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>11773</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="P7" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>10327</v>
+      </c>
+      <c r="R7" s="19">
         <v>50</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="19">
         <v>355</v>
       </c>
-      <c r="T7" t="s" s="4">
-        <v>24</v>
+      <c r="T7" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="U7" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="V7" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="4">
-        <v>30</v>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="5">
         <v>14</v>
@@ -1906,40 +2058,40 @@
       <c r="L8" s="5">
         <v>210</v>
       </c>
-      <c r="M8" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="M8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="24">
         <v>1</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="19">
         <v>1</v>
       </c>
-      <c r="P8" s="5">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>10347</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="P8" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>8556</v>
+      </c>
+      <c r="R8" s="19">
         <v>50</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="19">
         <v>355</v>
       </c>
-      <c r="T8" t="s" s="4">
-        <v>24</v>
+      <c r="T8" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="U8" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="V8" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="4">
-        <v>31</v>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
@@ -1974,40 +2126,40 @@
       <c r="L9" s="5">
         <v>210</v>
       </c>
-      <c r="M9" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="N9" s="5">
+      <c r="M9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="24">
         <v>1</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="19">
         <v>1</v>
       </c>
-      <c r="P9" s="5">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>10347</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="P9" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>8556</v>
+      </c>
+      <c r="R9" s="19">
         <v>50</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="19">
         <v>355</v>
       </c>
-      <c r="T9" t="s" s="4">
-        <v>24</v>
+      <c r="T9" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="U9" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="V9" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>32</v>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="5">
         <v>14</v>
@@ -2042,40 +2194,40 @@
       <c r="L10" s="5">
         <v>210</v>
       </c>
-      <c r="M10" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="M10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="24">
         <v>1</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="19">
         <v>1</v>
       </c>
-      <c r="P10" s="5">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>5765</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="P10" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>5034</v>
+      </c>
+      <c r="R10" s="19">
         <v>50</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="19">
         <v>355</v>
       </c>
-      <c r="T10" t="s" s="4">
-        <v>24</v>
+      <c r="T10" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="U10" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="V10" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="4">
-        <v>33</v>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="5">
         <v>7</v>
@@ -2110,38 +2262,38 @@
       <c r="L11" s="5">
         <v>210</v>
       </c>
-      <c r="M11" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="M11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="24">
         <v>1</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="19">
         <v>1</v>
       </c>
-      <c r="P11" s="5">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>5765</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="P11" s="19">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>5034</v>
+      </c>
+      <c r="R11" s="19">
         <v>50</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="19">
         <v>355</v>
       </c>
-      <c r="T11" t="s" s="4">
-        <v>24</v>
+      <c r="T11" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="U11" s="5">
-        <v>1.2e-05</v>
+        <v>1.2E-5</v>
       </c>
       <c r="V11" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2155,17 +2307,17 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="4"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="15"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2179,619 +2331,619 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="10"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="16"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+    </row>
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+    </row>
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+    </row>
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+    </row>
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+    </row>
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+    </row>
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+    </row>
+    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+    </row>
+    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+    </row>
+    <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+    </row>
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+    </row>
+    <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/tables/input/trial1_kotik.xlsx
+++ b/tables/input/trial1_kotik.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DDD\NUS_modules_from PC_ not on drive\5112\KOTIK\strut pack\civilR 2\civilR\tables\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DDD\NUS_modules_from PC_ not on drive\5112\KOTIK\final\strut input-output excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -150,11 +150,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -356,18 +351,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1532,14 +1527,14 @@
   <dimension ref="A1:IW38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q11"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.36328125" style="1" customWidth="1"/>
     <col min="2" max="13" width="8.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" style="28" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" style="26" customWidth="1"/>
     <col min="15" max="19" width="8.81640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="12.6328125" style="1" customWidth="1"/>
     <col min="21" max="257" width="8.81640625" style="1" customWidth="1"/>
@@ -1585,7 +1580,7 @@
       <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="21" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="18" t="s">
@@ -1653,7 +1648,7 @@
       <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="22">
         <v>1</v>
       </c>
       <c r="O2" s="19">
@@ -1662,11 +1657,11 @@
       <c r="P2" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Q2" s="22">
-        <v>4373</v>
+      <c r="Q2" s="29">
+        <v>3226</v>
       </c>
       <c r="R2" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S2" s="19">
         <v>355</v>
@@ -1721,7 +1716,7 @@
       <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="22">
         <v>1</v>
       </c>
       <c r="O3" s="19">
@@ -1730,11 +1725,11 @@
       <c r="P3" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Q3" s="22">
-        <v>4373</v>
+      <c r="Q3" s="29">
+        <v>3226</v>
       </c>
       <c r="R3" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S3" s="19">
         <v>355</v>
@@ -1789,7 +1784,7 @@
       <c r="M4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="22">
         <v>1</v>
       </c>
       <c r="O4" s="19">
@@ -1798,11 +1793,11 @@
       <c r="P4" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Q4" s="20">
-        <v>7215</v>
+      <c r="Q4" s="29">
+        <v>5321</v>
       </c>
       <c r="R4" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S4" s="19">
         <v>355</v>
@@ -1857,7 +1852,7 @@
       <c r="M5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="22">
         <v>1</v>
       </c>
       <c r="O5" s="19">
@@ -1866,11 +1861,11 @@
       <c r="P5" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Q5" s="20">
-        <v>7215</v>
+      <c r="Q5" s="29">
+        <v>5321</v>
       </c>
       <c r="R5" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S5" s="19">
         <v>355</v>
@@ -1925,7 +1920,7 @@
       <c r="M6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="22">
         <v>1</v>
       </c>
       <c r="O6" s="19">
@@ -1934,11 +1929,11 @@
       <c r="P6" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Q6" s="20">
-        <v>10327</v>
+      <c r="Q6" s="29">
+        <v>7623</v>
       </c>
       <c r="R6" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S6" s="19">
         <v>355</v>
@@ -1993,7 +1988,7 @@
       <c r="M7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="22">
         <v>1</v>
       </c>
       <c r="O7" s="19">
@@ -2002,11 +1997,11 @@
       <c r="P7" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Q7" s="20">
-        <v>10327</v>
+      <c r="Q7" s="29">
+        <v>7623</v>
       </c>
       <c r="R7" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S7" s="19">
         <v>355</v>
@@ -2061,7 +2056,7 @@
       <c r="M8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="22">
         <v>1</v>
       </c>
       <c r="O8" s="19">
@@ -2070,11 +2065,11 @@
       <c r="P8" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Q8" s="20">
-        <v>8556</v>
+      <c r="Q8" s="29">
+        <v>6319</v>
       </c>
       <c r="R8" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S8" s="19">
         <v>355</v>
@@ -2129,7 +2124,7 @@
       <c r="M9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="22">
         <v>1</v>
       </c>
       <c r="O9" s="19">
@@ -2138,11 +2133,11 @@
       <c r="P9" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Q9" s="20">
-        <v>8556</v>
+      <c r="Q9" s="29">
+        <v>6319</v>
       </c>
       <c r="R9" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S9" s="19">
         <v>355</v>
@@ -2197,7 +2192,7 @@
       <c r="M10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="22">
         <v>1</v>
       </c>
       <c r="O10" s="19">
@@ -2206,11 +2201,11 @@
       <c r="P10" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Q10" s="20">
-        <v>5034</v>
+      <c r="Q10" s="29">
+        <v>3715</v>
       </c>
       <c r="R10" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S10" s="19">
         <v>355</v>
@@ -2265,7 +2260,7 @@
       <c r="M11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="22">
         <v>1</v>
       </c>
       <c r="O11" s="19">
@@ -2274,11 +2269,11 @@
       <c r="P11" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Q11" s="20">
-        <v>5034</v>
+      <c r="Q11" s="29">
+        <v>3715</v>
       </c>
       <c r="R11" s="19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="S11" s="19">
         <v>355</v>
@@ -2307,12 +2302,12 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
       <c r="T12" s="15"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -2331,12 +2326,12 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="16"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
@@ -2355,7 +2350,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="27"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -2376,11 +2371,9 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -2400,10 +2393,8 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="27"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -2424,10 +2415,8 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="27"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -2447,11 +2436,9 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="27"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="27"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -2472,10 +2459,8 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="27"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -2496,10 +2481,8 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="27"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -2520,10 +2503,8 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="27"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -2544,10 +2525,8 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="27"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -2568,10 +2547,8 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="27"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -2592,10 +2569,8 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="27"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -2619,7 +2594,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="11"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="27"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -2643,7 +2618,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="27"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -2667,7 +2642,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="27"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -2691,7 +2666,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="27"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -2715,7 +2690,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="27"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -2739,7 +2714,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="27"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
@@ -2763,7 +2738,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="27"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -2787,7 +2762,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="27"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -2811,7 +2786,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="27"/>
+      <c r="N33" s="25"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
@@ -2835,7 +2810,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="27"/>
+      <c r="N34" s="25"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -2859,7 +2834,7 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="27"/>
+      <c r="N35" s="25"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -2883,7 +2858,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="27"/>
+      <c r="N36" s="25"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
@@ -2907,7 +2882,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="27"/>
+      <c r="N37" s="25"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
@@ -2931,7 +2906,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="27"/>
+      <c r="N38" s="25"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>

--- a/tables/input/trial1_kotik.xlsx
+++ b/tables/input/trial1_kotik.xlsx
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:IW38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="Q2" sqref="Q2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1658,7 +1658,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="Q2" s="29">
-        <v>3226</v>
+        <v>4839</v>
       </c>
       <c r="R2" s="19">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="Q3" s="29">
-        <v>3226</v>
+        <v>4839</v>
       </c>
       <c r="R3" s="19">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="Q4" s="29">
-        <v>5321</v>
+        <v>7981.5</v>
       </c>
       <c r="R4" s="19">
         <v>1</v>
@@ -1862,7 +1862,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="Q5" s="29">
-        <v>5321</v>
+        <v>7981.5</v>
       </c>
       <c r="R5" s="19">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="Q6" s="29">
-        <v>7623</v>
+        <v>11434.5</v>
       </c>
       <c r="R6" s="19">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="Q7" s="29">
-        <v>7623</v>
+        <v>11434.5</v>
       </c>
       <c r="R7" s="19">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="Q8" s="29">
-        <v>6319</v>
+        <v>9478.5</v>
       </c>
       <c r="R8" s="19">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="Q9" s="29">
-        <v>6319</v>
+        <v>9478.5</v>
       </c>
       <c r="R9" s="19">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="Q10" s="29">
-        <v>3715</v>
+        <v>5572.5</v>
       </c>
       <c r="R10" s="19">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="Q11" s="29">
-        <v>3715</v>
+        <v>5572.5</v>
       </c>
       <c r="R11" s="19">
         <v>1</v>
